--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92ED235-1037-4CA8-A8FC-04371FF97A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C63E4-BCB4-46C1-AAC0-DC0F0D13030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7468,8 +7468,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C63E4-BCB4-46C1-AAC0-DC0F0D13030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548775C5-A48D-4F61-9BB0-D15410B356F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548775C5-A48D-4F61-9BB0-D15410B356F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049928D-6926-432C-889B-5F4F2B381A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -22353,7 +22353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049928D-6926-432C-889B-5F4F2B381A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA5A37-FC3B-4869-858A-896D943941C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22353,7 +22354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA5A37-FC3B-4869-858A-896D943941C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989C353-87E3-445D-AC17-8B1CABD5C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989C353-87E3-445D-AC17-8B1CABD5C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBA0782-F39F-401B-996D-D842ACF10360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBA0782-F39F-401B-996D-D842ACF10360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AD5A2-C0BC-4800-9FE5-636D199190A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AD5A2-C0BC-4800-9FE5-636D199190A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3123F8-A7C2-48DD-BE61-23CC49B3F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3123F8-A7C2-48DD-BE61-23CC49B3F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1DDBE-311D-4046-BA93-1D7DFB779B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1DDBE-311D-4046-BA93-1D7DFB779B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F1716-79E7-49B2-BF97-C88DDB6534C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F1716-79E7-49B2-BF97-C88DDB6534C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B840D1-B531-47E3-86E0-C60423386407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B840D1-B531-47E3-86E0-C60423386407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D39B1A-67F6-4483-9DB2-848C81B217AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D39B1A-67F6-4483-9DB2-848C81B217AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2AD7D-A0DE-4F6C-A9B1-99899ED15E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2AD7D-A0DE-4F6C-A9B1-99899ED15E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D432B-0246-42F3-A4EE-79E9EF9623E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -49063,7 +49062,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y21"/>
+      <selection activeCell="A12" sqref="A12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D432B-0246-42F3-A4EE-79E9EF9623E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6CC55-7235-4C37-8D2E-BB4A72C35EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6CC55-7235-4C37-8D2E-BB4A72C35EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BDDA12-4D88-4696-9642-2E3E9EA88AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BDDA12-4D88-4696-9642-2E3E9EA88AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB94266-C640-44BA-87A2-7EE8F1F902ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB94266-C640-44BA-87A2-7EE8F1F902ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98A1F5-9182-41F6-8155-104279C8C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98A1F5-9182-41F6-8155-104279C8C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4587B-F040-4B85-A70E-B05DA9A8A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4587B-F040-4B85-A70E-B05DA9A8A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99003399-B3C0-41E2-BD7C-5CE40C29BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2025.xlsx
+++ b/data/CS3/case30/case30_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99003399-B3C0-41E2-BD7C-5CE40C29BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17580B35-32A7-44D8-9B22-356A3D924B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
